--- a/O2S InsuranceExpertise/Templates/BC_DangKyBaoHiemYTe_NoiTru.xlsx
+++ b/O2S InsuranceExpertise/Templates/BC_DangKyBaoHiemYTe_NoiTru.xlsx
@@ -406,6 +406,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,18 +426,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,8 +730,7 @@
     <col min="13" max="13" width="6.7109375" style="6" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="19.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="18.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="18.42578125" style="6" customWidth="1"/>
     <col min="19" max="19" width="19.140625" style="1" customWidth="1"/>
     <col min="20" max="20" width="15.42578125" style="1" customWidth="1"/>
@@ -740,7 +739,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>47</v>
       </c>
     </row>
@@ -749,58 +748,58 @@
         <v>48</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:21" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -931,13 +930,13 @@
       </c>
     </row>
     <row r="9" spans="1:21" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="10"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -956,10 +955,10 @@
       <c r="U9" s="8"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R12" s="27" t="s">
+      <c r="R12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="27"/>
+      <c r="S12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -971,7 +970,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="85" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>
